--- a/Spreadsheet/FromLB/Sharon/20190304 LDB to LEMIR E_I_Mapping Sharon 3rd update.xlsx
+++ b/Spreadsheet/FromLB/Sharon/20190304 LDB to LEMIR E_I_Mapping Sharon 3rd update.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\repos\solid-waste-migration\Spreadsheet\FromLB\Sharon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70EA3BD-F5BB-4170-957B-B371E8334E30}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-60" windowWidth="19440" windowHeight="11580"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -935,7 +941,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
   </numFmts>
@@ -1144,7 +1150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1189,9 +1195,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1222,7 +1225,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Proces" xfId="1"/>
+    <cellStyle name="Normal_Proces" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1316,28 +1319,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F51" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A2:F51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:F51" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A2:F51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="LEMIR Type from righthand table" dataDxfId="3"/>
-    <tableColumn id="2" name="LDB_FacilityType"/>
-    <tableColumn id="3" name="LDB_FacilityTypeDescription"/>
-    <tableColumn id="4" name="LEMIR Code"/>
-    <tableColumn id="5" name="LEMIR Desc"/>
-    <tableColumn id="6" name="EPD Comments" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LEMIR Type from righthand table" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="LDB_FacilityType"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="LDB_FacilityTypeDescription"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="LEMIR Code"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="LEMIR Desc"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="EPD Comments" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="H2:K19" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="H2:K19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table14" displayName="Table14" ref="H2:K19" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="H2:K19" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="TYPE_RID" dataDxfId="0"/>
-    <tableColumn id="2" name="TYPE_CD"/>
-    <tableColumn id="3" name="TYPE_NAME"/>
-    <tableColumn id="4" name="TYPE_DESC"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TYPE_RID" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TYPE_CD"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="TYPE_NAME"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="TYPE_DESC"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1627,10 +1630,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1649,20 +1652,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="5"/>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2590,7 +2593,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="17" t="s">
         <v>61</v>
       </c>
@@ -2603,7 +2606,7 @@
       <c r="E43" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="7" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2761,7 +2764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2828,7 +2831,7 @@
       <c r="M1" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="25" t="s">
         <v>289</v>
       </c>
     </row>
@@ -2872,7 +2875,7 @@
       <c r="M2" s="12">
         <v>38412</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="22" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2916,7 +2919,7 @@
       <c r="M3" s="12">
         <v>35317</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="22" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2960,7 +2963,7 @@
       <c r="M4" s="12">
         <v>38888</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="22" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3004,7 +3007,7 @@
       <c r="M5" s="12">
         <v>33190</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="23" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3046,7 +3049,7 @@
         <v>197</v>
       </c>
       <c r="M6" s="13"/>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="23" t="s">
         <v>41</v>
       </c>
       <c r="O6" s="15" t="s">
@@ -3093,7 +3096,7 @@
       <c r="M7" s="12">
         <v>41176</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="23" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3137,7 +3140,7 @@
       <c r="M8" s="12">
         <v>36378</v>
       </c>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="23" t="s">
         <v>172</v>
       </c>
       <c r="O8" s="14" t="s">
@@ -3184,7 +3187,7 @@
       <c r="M9" s="12">
         <v>36672</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="N9" s="23" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3228,7 +3231,7 @@
       <c r="M10" s="12">
         <v>34297</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="N10" s="23" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3272,7 +3275,7 @@
       <c r="M11" s="12">
         <v>38699</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="23" t="s">
         <v>83</v>
       </c>
       <c r="O11" s="14" t="s">
@@ -3319,7 +3322,7 @@
       <c r="M12" s="12">
         <v>40158</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="23" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3363,37 +3366,37 @@
       <c r="M13" s="12">
         <v>40630</v>
       </c>
-      <c r="N13" s="24" t="s">
+      <c r="N13" s="23" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="24" t="s">
+      <c r="G14" s="19"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="23" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3437,7 +3440,7 @@
       <c r="M15" s="12">
         <v>37169</v>
       </c>
-      <c r="N15" s="24" t="s">
+      <c r="N15" s="23" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3481,7 +3484,7 @@
       <c r="M16" s="12">
         <v>38793</v>
       </c>
-      <c r="N16" s="24" t="s">
+      <c r="N16" s="23" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3525,7 +3528,7 @@
       <c r="M17" s="12">
         <v>38198</v>
       </c>
-      <c r="N17" s="24" t="s">
+      <c r="N17" s="23" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3569,7 +3572,7 @@
       <c r="M18" s="12">
         <v>35683</v>
       </c>
-      <c r="N18" s="24" t="s">
+      <c r="N18" s="23" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3613,7 +3616,7 @@
       <c r="M19" s="12">
         <v>28317</v>
       </c>
-      <c r="N19" s="25" t="s">
+      <c r="N19" s="24" t="s">
         <v>298</v>
       </c>
       <c r="O19" s="14" t="s">
@@ -3660,7 +3663,7 @@
       <c r="M20" s="12">
         <v>30949</v>
       </c>
-      <c r="N20" s="25" t="s">
+      <c r="N20" s="24" t="s">
         <v>298</v>
       </c>
       <c r="O20" s="14" t="s">
@@ -3705,7 +3708,7 @@
         <v>263</v>
       </c>
       <c r="M21" s="13"/>
-      <c r="N21" s="24" t="s">
+      <c r="N21" s="23" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3747,7 +3750,7 @@
         <v>268</v>
       </c>
       <c r="M22" s="13"/>
-      <c r="N22" s="25" t="s">
+      <c r="N22" s="24" t="s">
         <v>298</v>
       </c>
     </row>
@@ -3789,7 +3792,7 @@
         <v>274</v>
       </c>
       <c r="M23" s="13"/>
-      <c r="N23" s="25" t="s">
+      <c r="N23" s="24" t="s">
         <v>298</v>
       </c>
       <c r="O23" s="15" t="s">
@@ -3834,7 +3837,7 @@
         <v>278</v>
       </c>
       <c r="M24" s="13"/>
-      <c r="N24" s="25" t="s">
+      <c r="N24" s="24" t="s">
         <v>298</v>
       </c>
       <c r="O24" s="15" t="s">
@@ -3879,7 +3882,7 @@
         <v>136</v>
       </c>
       <c r="M25" s="13"/>
-      <c r="N25" s="25" t="s">
+      <c r="N25" s="24" t="s">
         <v>298</v>
       </c>
       <c r="O25" s="15" t="s">
@@ -3924,7 +3927,7 @@
         <v>288</v>
       </c>
       <c r="M26" s="13"/>
-      <c r="N26" s="25" t="s">
+      <c r="N26" s="24" t="s">
         <v>298</v>
       </c>
       <c r="O26" s="15" t="s">
@@ -3932,7 +3935,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N26"/>
+  <autoFilter ref="A1:N26" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
